--- a/Palestras/202104 - Guia Essencial Python/dados/dia03.xlsx
+++ b/Palestras/202104 - Guia Essencial Python/dados/dia03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PESSOAL\DataAnalist\DataScience\Git\materiais_apoio_cursos\Palestras\202104 - Guia Essencial Python\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056EE81A-12AC-4950-8041-989AC945ECBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EE7F07-DC09-4A2F-B538-6179EBA663F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92A72FA7-27AF-47DF-994B-A15E26682434}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="A26:XFD26"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>36526</v>
+        <v>36528</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
